--- a/97_enquete/15.xlsx
+++ b/97_enquete/15.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19155" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19160" windowHeight="7240"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -40,16 +45,49 @@
   </si>
   <si>
     <t>ludmilla</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,45 +411,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="C1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -445,29 +486,44 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>